--- a/buy or own synonymns.xlsx
+++ b/buy or own synonymns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8278132ce492fb30/Documents/Fall/Unstructured data analytics/edmunds-brand-association/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{2038F30F-38E0-4331-9E86-B04C0E9C91CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD453A83-13EF-4FF5-B075-8683D1BB5A1D}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{2038F30F-38E0-4331-9E86-B04C0E9C91CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A710362-B7BE-422D-B03C-6AE43A86D7C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D93EDF0F-0CA7-43D6-9C31-9B3C4230FD59}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Synonymns</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>purchase</t>
   </si>
@@ -50,9 +47,6 @@
     <t>obtain</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>take</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>procure</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
@@ -95,12 +86,6 @@
     <t>possess</t>
   </si>
   <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>investing</t>
   </si>
   <si>
@@ -113,12 +98,6 @@
     <t>obtaining</t>
   </si>
   <si>
-    <t>getting</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
     <t>securing</t>
   </si>
   <si>
@@ -131,12 +110,6 @@
     <t>scoring</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>gaining</t>
-  </si>
-  <si>
     <t>attaining</t>
   </si>
   <si>
@@ -156,6 +129,27 @@
   </si>
   <si>
     <t>holding</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>renting</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>aspire to</t>
+  </si>
+  <si>
+    <t>dream of</t>
+  </si>
+  <si>
+    <t>hope to</t>
+  </si>
+  <si>
+    <t>aspire</t>
   </si>
 </sst>
 </file>
@@ -511,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A63193-8F68-4FBD-93E4-927941977F52}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,172 +518,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -714,12 +708,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
